--- a/Android_Assignment_Checklist.xlsx
+++ b/Android_Assignment_Checklist.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\Infosys\MyWork\Infosys_Assignment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Documents\GitHub\Android-Assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="81">
   <si>
     <t>Naming convention should be as per android standards.</t>
   </si>
@@ -262,9 +262,6 @@
     <t>In my last project I have used Junit framework for unit testing</t>
   </si>
   <si>
-    <t>I have a basic knowledge of Fragments</t>
-  </si>
-  <si>
     <t>I have a good knowledge of android basic blocks like services,activity, content provider, broadcast receiver</t>
   </si>
   <si>
@@ -284,6 +281,12 @@
   </si>
   <si>
     <t>I have worked on core java in my previous project</t>
+  </si>
+  <si>
+    <t>I have used the fragment 'FeedsFragment' in this assignment</t>
+  </si>
+  <si>
+    <t>I have a basic knowledge of Fragments and I have also used in current assignment</t>
   </si>
 </sst>
 </file>
@@ -709,8 +712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -765,7 +768,7 @@
         <v>20</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="D4" s="13"/>
     </row>
@@ -1112,7 +1115,7 @@
         <v>8</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
@@ -1123,7 +1126,7 @@
         <v>7</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
@@ -1156,7 +1159,7 @@
         <v>8</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
@@ -1167,7 +1170,7 @@
         <v>7</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.25">
@@ -1178,7 +1181,7 @@
         <v>7</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.25">
@@ -1189,7 +1192,7 @@
         <v>7</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.25">
@@ -1200,7 +1203,7 @@
         <v>7</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.25">
@@ -1211,11 +1214,25 @@
         <v>8</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="C8:D8"/>
@@ -1232,20 +1249,6 @@
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
